--- a/biology/Microbiologie/Dickeya/Dickeya.xlsx
+++ b/biology/Microbiologie/Dickeya/Dickeya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dickeya est un genre de bacilles Gram négatifs de la famille des Pectobacteriaceae. Son nom fait référence au phytopathologiste R.S. Dickey en hommage à ses contributions concernant l'étude du « complexe Erwinia chrysanthemi »[1].
-Plusieurs espèces sont des phytopathogènes notoires[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dickeya est un genre de bacilles Gram négatifs de la famille des Pectobacteriaceae. Son nom fait référence au phytopathologiste R.S. Dickey en hommage à ses contributions concernant l'étude du « complexe Erwinia chrysanthemi ».
+Plusieurs espèces sont des phytopathogènes notoires,.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été créé en 2005 par reclassement des espèces Pectobacterium chrysanthemi et Brenneria paradisiaca déjà comptées dans la famille des Pectobacteriaceae[1].
-Jusqu'en 2016 il était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Pectobacteriaceae nouvellement créée[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été créé en 2005 par reclassement des espèces Pectobacterium chrysanthemi et Brenneria paradisiaca déjà comptées dans la famille des Pectobacteriaceae.
+Jusqu'en 2016 il était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Pectobacteriaceae nouvellement créée.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (26 octobre 2022)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (26 octobre 2022) :
 Dickeya aquatica Parkinson et al. 2014
 Dickeya chrysanthemi (Burkholder et al. 1953) Samson et al. 2005 – espèce type
 Dickeya dadantii Samson et al. 2005
@@ -589,9 +605,11 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau suivant indique une correspondance entre certaines espèces et leurs plantes hôtes[6],[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau suivant indique une correspondance entre certaines espèces et leurs plantes hôtes, :
 </t>
         </is>
       </c>
